--- a/画面項目定義/main画面項目定義.xlsx
+++ b/画面項目定義/main画面項目定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DFEFA0-1DB5-4530-988D-F382296D9655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA125A8D-2803-4561-8010-B79F8A99EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5403A75B-9E09-4068-94D7-9E290E9609AB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5403A75B-9E09-4068-94D7-9E290E9609AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,18 +122,12 @@
     <t>リンク先URLの有効性を確認</t>
   </si>
   <si>
-    <t>「search.html」に遷移</t>
-  </si>
-  <si>
     <t>ナビゲーションリンク3</t>
   </si>
   <si>
     <t>「ログイン」</t>
   </si>
   <si>
-    <t>「login.html」に遷移</t>
-  </si>
-  <si>
     <t>メインイメージ</t>
   </si>
   <si>
@@ -165,6 +159,17 @@
   </si>
   <si>
     <t>ページ最下部に著作権情報を表示</t>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル検索選択画面に遷移</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -565,13 +570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36FBA96-D26C-4573-B753-3BFE039947C7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="108" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -611,7 +616,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -631,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -651,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -668,12 +673,12 @@
         <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -682,18 +687,18 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="144" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="141" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -702,18 +707,18 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -722,16 +727,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -748,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="88.15" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -762,13 +767,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
